--- a/Tag count.xlsx
+++ b/Tag count.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Tag count" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="166">
   <si>
     <t>jesus</t>
   </si>
@@ -91,9 +92,6 @@
     <t>satan</t>
   </si>
   <si>
-    <t>growth</t>
-  </si>
-  <si>
     <t>light</t>
   </si>
   <si>
@@ -232,9 +230,6 @@
     <t>humility</t>
   </si>
   <si>
-    <t>knowing -god</t>
-  </si>
-  <si>
     <t>leaders</t>
   </si>
   <si>
@@ -292,9 +287,6 @@
     <t>pride</t>
   </si>
   <si>
-    <t>reliance</t>
-  </si>
-  <si>
     <t>rest</t>
   </si>
   <si>
@@ -367,18 +359,12 @@
     <t>legalism</t>
   </si>
   <si>
-    <t>lies</t>
-  </si>
-  <si>
     <t>loyalty</t>
   </si>
   <si>
     <t>lust</t>
   </si>
   <si>
-    <t>marnage</t>
-  </si>
-  <si>
     <t>mourning</t>
   </si>
   <si>
@@ -412,9 +398,6 @@
     <t>stumbling-blocks</t>
   </si>
   <si>
-    <t>temple</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
@@ -430,13 +413,106 @@
     <t>salvation</t>
   </si>
   <si>
-    <t>sin</t>
-  </si>
-  <si>
     <t>inversion</t>
   </si>
   <si>
-    <t>God the Father</t>
+    <t>father</t>
+  </si>
+  <si>
+    <t>com ma nds</t>
+  </si>
+  <si>
+    <t>Inversion</t>
+  </si>
+  <si>
+    <t>g rowth</t>
+  </si>
+  <si>
+    <t>peace</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>joy</t>
+  </si>
+  <si>
+    <t>second-coming</t>
+  </si>
+  <si>
+    <t>heaven</t>
+  </si>
+  <si>
+    <t>end-times</t>
+  </si>
+  <si>
+    <t>knowing-god</t>
+  </si>
+  <si>
+    <t>guilt</t>
+  </si>
+  <si>
+    <t>jerusalem</t>
+  </si>
+  <si>
+    <t>marriage</t>
+  </si>
+  <si>
+    <t>pharisees</t>
+  </si>
+  <si>
+    <t>relia nce</t>
+  </si>
+  <si>
+    <t>representing-jesus</t>
+  </si>
+  <si>
+    <t>widows</t>
+  </si>
+  <si>
+    <t>ascension</t>
+  </si>
+  <si>
+    <t>discipleship</t>
+  </si>
+  <si>
+    <t>evangelism</t>
+  </si>
+  <si>
+    <t>following -jesus</t>
+  </si>
+  <si>
+    <t>gods-honor</t>
+  </si>
+  <si>
+    <t>grief</t>
+  </si>
+  <si>
+    <t>hearing-from-god</t>
+  </si>
+  <si>
+    <t>names</t>
+  </si>
+  <si>
+    <t>oaths</t>
+  </si>
+  <si>
+    <t>p rotection</t>
+  </si>
+  <si>
+    <t>tribulation</t>
+  </si>
+  <si>
+    <t>trustworthiness</t>
+  </si>
+  <si>
+    <t>witnessing</t>
+  </si>
+  <si>
+    <t>word-of-god</t>
+  </si>
+  <si>
+    <t>god</t>
   </si>
 </sst>
 </file>
@@ -994,100 +1070,100 @@
                   <c:v>jesus</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>kingdom-of-heaven</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>father</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>commands</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>kingdom-of-heaven</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
+                  <c:v>judgment</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>parables</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>miracles</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>judgment</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>God the Father</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>prophecy</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>healings</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>prophecy-fulfilled</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>belief</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>popularity</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>sin</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="12">
                   <c:v>eternal-life</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>prophecy</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>faith</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>authority</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>holy-spirit</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>eternal-reward</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>gods-glory</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>inversion</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>love</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>obedience</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>prayer</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>children-of-god</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>demons</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>belief</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>eternal-reward</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>faith</c:v>
-                </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="24">
+                  <c:v>food-and-drink</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>forgiveness</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>satan</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>generosity</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>healing</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>obedience</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>generosity</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>authority</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>forgiveness</c:v>
-                </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="29">
+                  <c:v>scripture</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>work</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>salvation</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>work</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>food-and-drink</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>heart</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>hunger-and-thirst</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>inversion</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>satan</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>holy-spirit</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>growth</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>light</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>prophecy-fulfilled</c:v>
-                </c:pt>
                 <c:pt idx="32">
-                  <c:v>scripture</c:v>
+                  <c:v>honor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1099,126 +1175,126 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="22">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="24">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="28">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="29">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="30">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="17">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="32">
                   <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="138270208"/>
-        <c:axId val="138271744"/>
+        <c:axId val="137745920"/>
+        <c:axId val="137747456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138270208"/>
+        <c:axId val="137745920"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138271744"/>
+        <c:crossAx val="137747456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138271744"/>
+        <c:axId val="137747456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1226,7 +1302,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138270208"/>
+        <c:crossAx val="137745920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1235,7 +1311,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1277,8 +1353,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B140" totalsRowShown="0">
-  <autoFilter ref="A1:B140"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B162" totalsRowShown="0">
+  <autoFilter ref="A1:B162"/>
+  <sortState ref="A2:B162">
+    <sortCondition descending="1" ref="B1:B162"/>
+  </sortState>
   <tableColumns count="2">
     <tableColumn id="1" name="Tag"/>
     <tableColumn id="2" name="Count"/>
@@ -1572,10 +1651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B140"/>
+  <dimension ref="A1:B162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I121" sqref="I121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1585,10 +1664,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1596,615 +1675,615 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>133</v>
       </c>
       <c r="B4">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>26</v>
       </c>
       <c r="B11">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B19">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="B20">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
         <v>18</v>
-      </c>
-      <c r="B21">
-        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="B23">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B25">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B27">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>24</v>
       </c>
       <c r="B28">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B30">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B32">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="B33">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B37">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B38">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B40">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B43">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B44">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B47">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B49">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B50">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B51">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B52">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B53">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B54">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B55">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="B56">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B57">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B58">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B59">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B60">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>139</v>
       </c>
       <c r="B61">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B62">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B63">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B64">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B65">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B66">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B67">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B70">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B71">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B72">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="B73">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B75">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="B76">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -2212,31 +2291,31 @@
         <v>73</v>
       </c>
       <c r="B79">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B81">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -2244,12 +2323,12 @@
         <v>77</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -2257,7 +2336,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B85">
         <v>4</v>
@@ -2265,66 +2344,66 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="B86">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B87">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B88">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B89">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B90">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="B92">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>87</v>
+        <v>143</v>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -2332,28 +2411,28 @@
         <v>88</v>
       </c>
       <c r="B94">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B95">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="B96">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B97">
         <v>3</v>
@@ -2361,7 +2440,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B98">
         <v>3</v>
@@ -2369,7 +2448,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B99">
         <v>3</v>
@@ -2377,7 +2456,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B100">
         <v>3</v>
@@ -2385,7 +2464,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B101">
         <v>3</v>
@@ -2393,151 +2472,151 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="B103">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="B105">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="B107">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B108">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="B109">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="B110">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B111">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="B113">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
       <c r="B114">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="B115">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B116">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B117">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>112</v>
+        <v>150</v>
       </c>
       <c r="B118">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B119">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -2545,7 +2624,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B121">
         <v>2</v>
@@ -2553,7 +2632,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>116</v>
+        <v>151</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -2561,7 +2640,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -2569,7 +2648,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B124">
         <v>2</v>
@@ -2577,7 +2656,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B125">
         <v>2</v>
@@ -2585,7 +2664,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B126">
         <v>2</v>
@@ -2593,7 +2672,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B127">
         <v>2</v>
@@ -2601,7 +2680,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="B128">
         <v>2</v>
@@ -2609,7 +2688,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="B129">
         <v>2</v>
@@ -2617,7 +2696,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B130">
         <v>2</v>
@@ -2625,7 +2704,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>125</v>
+        <v>153</v>
       </c>
       <c r="B131">
         <v>2</v>
@@ -2633,7 +2712,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -2641,7 +2720,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="B133">
         <v>2</v>
@@ -2649,7 +2728,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="B134">
         <v>2</v>
@@ -2657,7 +2736,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="B135">
         <v>2</v>
@@ -2665,7 +2744,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B136">
         <v>2</v>
@@ -2673,7 +2752,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -2681,7 +2760,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="B138">
         <v>2</v>
@@ -2689,7 +2768,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="B139">
         <v>2</v>
@@ -2697,9 +2776,185 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="B140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>113</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>114</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>115</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>158</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>159</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>117</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>118</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>119</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>160</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>120</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>121</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>122</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>123</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>124</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>125</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>126</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>161</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>162</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>163</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>164</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>127</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>128</v>
+      </c>
+      <c r="B162">
         <v>2</v>
       </c>
     </row>
@@ -2711,4 +2966,1312 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B162"/>
+  <sheetViews>
+    <sheetView topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B162"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>40</v>
+      </c>
+      <c r="B50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B65">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>59</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>52</v>
+      </c>
+      <c r="B72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>70</v>
+      </c>
+      <c r="B77">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>89</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>73</v>
+      </c>
+      <c r="B79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>75</v>
+      </c>
+      <c r="B80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>76</v>
+      </c>
+      <c r="B81">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>64</v>
+      </c>
+      <c r="B82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>65</v>
+      </c>
+      <c r="B85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>142</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>66</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>81</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>67</v>
+      </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>69</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>143</v>
+      </c>
+      <c r="B93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>88</v>
+      </c>
+      <c r="B94">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>72</v>
+      </c>
+      <c r="B95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>74</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>78</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>79</v>
+      </c>
+      <c r="B99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>82</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>144</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>84</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>145</v>
+      </c>
+      <c r="B107">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>85</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>146</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>86</v>
+      </c>
+      <c r="B111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>87</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>147</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>148</v>
+      </c>
+      <c r="B114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>149</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>90</v>
+      </c>
+      <c r="B116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>91</v>
+      </c>
+      <c r="B117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>150</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>92</v>
+      </c>
+      <c r="B119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>93</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>95</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>151</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>97</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>98</v>
+      </c>
+      <c r="B124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>99</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>100</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>101</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>102</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>152</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>103</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>153</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>104</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>154</v>
+      </c>
+      <c r="B133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>155</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>106</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>108</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>156</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>157</v>
+      </c>
+      <c r="B138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>110</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>112</v>
+      </c>
+      <c r="B140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>113</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>114</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>115</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>158</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>159</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>117</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>118</v>
+      </c>
+      <c r="B147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>119</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>160</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>120</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>121</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>122</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>123</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>124</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>125</v>
+      </c>
+      <c r="B155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>126</v>
+      </c>
+      <c r="B156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>161</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>162</v>
+      </c>
+      <c r="B158">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>163</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>164</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>127</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>128</v>
+      </c>
+      <c r="B162">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>